--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Prod_simple_de.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Prod_simple_de.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Tag</t>
   </si>
@@ -28,13 +28,6 @@
     <t>Chargennummer</t>
   </si>
   <si>
-    <t xml:space="preserve">Empfänger Name </t>
-  </si>
-  <si>
-    <t>Empfänger Adresse 
-(Straße Hausnummer, PLZ Ort)</t>
-  </si>
-  <si>
     <t>Produktname</t>
   </si>
   <si>
@@ -42,13 +35,6 @@
   </si>
   <si>
     <t>Für Rückfragen bitte einfach anrufen: Dr. Armin Weiser, 030 - 18412-2118, armin.weiser@bfr.bund.de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lieferant Name </t>
-  </si>
-  <si>
-    <t>Lieferant Adresse 
-(Straße Hausnummer, PLZ Ort)</t>
   </si>
   <si>
     <t>anzufragender
@@ -121,13 +107,26 @@
   <si>
     <t>Wareneingang - Chargennummer
 (aus D6-Dxx)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lieferant </t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Adresse 
+(Straße Hausnummer, PLZ Ort)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empfänger </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +347,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -365,6 +365,14 @@
     </font>
     <font>
       <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,7 +556,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -694,21 +702,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -848,21 +841,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -929,6 +907,19 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1048,61 +1039,61 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1115,13 +1106,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
@@ -1131,87 +1122,75 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1220,13 +1199,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="30" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1667,19 +1655,19 @@
   <sheetData>
     <row r="1" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="C1" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="9"/>
       <c r="F1" s="26"/>
       <c r="H1" s="28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
@@ -1687,60 +1675,58 @@
     </row>
     <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:13" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
+      <c r="A3" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="58"/>
-      <c r="B4" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="41" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="46" t="s">
-        <v>12</v>
+      <c r="J4" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="41"/>
+      <c r="L4" s="42" t="s">
+        <v>8</v>
       </c>
       <c r="M4" s="13"/>
     </row>
-    <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="59"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+    <row r="5" spans="1:13" ht="39.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="55"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="29" t="s">
         <v>0</v>
       </c>
@@ -1750,10 +1736,14 @@
       <c r="H5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="47"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="43"/>
     </row>
     <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
@@ -1772,7 +1762,7 @@
     </row>
     <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -1786,7 +1776,7 @@
     </row>
     <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -1800,7 +1790,7 @@
     </row>
     <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -1814,7 +1804,7 @@
     </row>
     <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -1828,7 +1818,7 @@
     </row>
     <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -1842,7 +1832,7 @@
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -1867,74 +1857,76 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="48"/>
+    </row>
+    <row r="15" spans="1:13" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="52"/>
-    </row>
-    <row r="15" spans="1:13" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="56" t="s">
+      <c r="F15" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="35" t="s">
+      <c r="K15" s="59"/>
+      <c r="L15" s="42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="21" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="53"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="60"/>
+      <c r="J16" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="57"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I16" s="60"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="47"/>
+      <c r="K16" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="43"/>
     </row>
     <row r="17" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
@@ -1942,9 +1934,9 @@
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="6"/>
@@ -1956,9 +1948,9 @@
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
       <c r="I18" s="1"/>
       <c r="J18" s="18"/>
       <c r="K18" s="22"/>
@@ -1970,9 +1962,9 @@
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
       <c r="I19" s="1"/>
       <c r="J19" s="18"/>
       <c r="K19" s="22"/>
@@ -1984,9 +1976,9 @@
       <c r="C20" s="2"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
       <c r="I20" s="1"/>
       <c r="J20" s="18"/>
       <c r="K20" s="22"/>
@@ -1998,9 +1990,9 @@
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
       <c r="I21" s="1"/>
       <c r="J21" s="18"/>
       <c r="K21" s="22"/>
@@ -2012,9 +2004,9 @@
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
       <c r="I22" s="1"/>
       <c r="J22" s="18"/>
       <c r="K22" s="22"/>
@@ -2026,9 +2018,9 @@
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
       <c r="I23" s="1"/>
       <c r="J23" s="18"/>
       <c r="K23" s="22"/>
@@ -2040,9 +2032,9 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
       <c r="I24" s="1"/>
       <c r="J24" s="18"/>
       <c r="K24" s="22"/>
@@ -2054,9 +2046,9 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
       <c r="I25" s="1"/>
       <c r="J25" s="18"/>
       <c r="K25" s="22"/>
@@ -2068,9 +2060,9 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
       <c r="I26" s="1"/>
       <c r="J26" s="18"/>
       <c r="K26" s="22"/>
@@ -2082,9 +2074,9 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
       <c r="I27" s="1"/>
       <c r="J27" s="18"/>
       <c r="K27" s="22"/>
@@ -2096,9 +2088,9 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
       <c r="I28" s="1"/>
       <c r="J28" s="18"/>
       <c r="K28" s="22"/>
@@ -2110,9 +2102,9 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
       <c r="I29" s="1"/>
       <c r="J29" s="18"/>
       <c r="K29" s="22"/>
@@ -2124,9 +2116,9 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
       <c r="I30" s="1"/>
       <c r="J30" s="18"/>
       <c r="K30" s="22"/>
@@ -2138,9 +2130,9 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
       <c r="I31" s="1"/>
       <c r="J31" s="18"/>
       <c r="K31" s="22"/>
@@ -2152,9 +2144,9 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
       <c r="I32" s="1"/>
       <c r="J32" s="18"/>
       <c r="K32" s="22"/>
@@ -2166,9 +2158,9 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
       <c r="I33" s="1"/>
       <c r="J33" s="18"/>
       <c r="K33" s="22"/>
@@ -2180,9 +2172,9 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
       <c r="I34" s="1"/>
       <c r="J34" s="18"/>
       <c r="K34" s="22"/>
@@ -2194,9 +2186,9 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
       <c r="I35" s="1"/>
       <c r="J35" s="18"/>
       <c r="K35" s="22"/>
@@ -2208,9 +2200,9 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
       <c r="I36" s="1"/>
       <c r="J36" s="18"/>
       <c r="K36" s="22"/>
@@ -2222,9 +2214,9 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
       <c r="I37" s="1"/>
       <c r="J37" s="18"/>
       <c r="K37" s="22"/>
@@ -2236,9 +2228,9 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
       <c r="I38" s="1"/>
       <c r="J38" s="18"/>
       <c r="K38" s="22"/>
@@ -2250,9 +2242,9 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
       <c r="I39" s="1"/>
       <c r="J39" s="18"/>
       <c r="K39" s="22"/>
@@ -2264,9 +2256,9 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
       <c r="I40" s="1"/>
       <c r="J40" s="18"/>
       <c r="K40" s="22"/>
@@ -2278,9 +2270,9 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
       <c r="I41" s="1"/>
       <c r="J41" s="18"/>
       <c r="K41" s="22"/>
@@ -2292,9 +2284,9 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
       <c r="I42" s="1"/>
       <c r="J42" s="18"/>
       <c r="K42" s="22"/>
@@ -2306,9 +2298,9 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
       <c r="I43" s="1"/>
       <c r="J43" s="18"/>
       <c r="K43" s="22"/>
@@ -2320,9 +2312,9 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
       <c r="I44" s="1"/>
       <c r="J44" s="18"/>
       <c r="K44" s="22"/>
@@ -2334,9 +2326,9 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
       <c r="I45" s="1"/>
       <c r="J45" s="18"/>
       <c r="K45" s="22"/>
@@ -2348,9 +2340,9 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
       <c r="I46" s="1"/>
       <c r="J46" s="18"/>
       <c r="K46" s="22"/>
@@ -2362,9 +2354,9 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
       <c r="I47" s="1"/>
       <c r="J47" s="18"/>
       <c r="K47" s="22"/>
@@ -2376,9 +2368,9 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
       <c r="I48" s="1"/>
       <c r="J48" s="18"/>
       <c r="K48" s="22"/>
@@ -2390,9 +2382,9 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
       <c r="I49" s="1"/>
       <c r="J49" s="18"/>
       <c r="K49" s="22"/>
@@ -2404,9 +2396,9 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
       <c r="I50" s="1"/>
       <c r="J50" s="18"/>
       <c r="K50" s="22"/>
@@ -2418,9 +2410,9 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
       <c r="I51" s="1"/>
       <c r="J51" s="18"/>
       <c r="K51" s="22"/>
@@ -2432,9 +2424,9 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
       <c r="I52" s="1"/>
       <c r="J52" s="18"/>
       <c r="K52" s="22"/>
@@ -2446,9 +2438,9 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
       <c r="I53" s="1"/>
       <c r="J53" s="18"/>
       <c r="K53" s="22"/>
@@ -2460,9 +2452,9 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
       <c r="I54" s="1"/>
       <c r="J54" s="18"/>
       <c r="K54" s="22"/>
@@ -2474,9 +2466,9 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
       <c r="I55" s="1"/>
       <c r="J55" s="18"/>
       <c r="K55" s="22"/>
@@ -2488,9 +2480,9 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
       <c r="I56" s="1"/>
       <c r="J56" s="18"/>
       <c r="K56" s="22"/>
@@ -2502,9 +2494,9 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
       <c r="I57" s="1"/>
       <c r="J57" s="18"/>
       <c r="K57" s="22"/>
@@ -2516,9 +2508,9 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
       <c r="I58" s="1"/>
       <c r="J58" s="18"/>
       <c r="K58" s="22"/>
@@ -2530,9 +2522,9 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
       <c r="I59" s="1"/>
       <c r="J59" s="18"/>
       <c r="K59" s="22"/>
@@ -2544,9 +2536,9 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
       <c r="I60" s="1"/>
       <c r="J60" s="18"/>
       <c r="K60" s="22"/>
@@ -2558,9 +2550,9 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
       <c r="I61" s="1"/>
       <c r="J61" s="18"/>
       <c r="K61" s="22"/>
@@ -2572,9 +2564,9 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
       <c r="I62" s="1"/>
       <c r="J62" s="18"/>
       <c r="K62" s="22"/>
@@ -2586,9 +2578,9 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
       <c r="I63" s="1"/>
       <c r="J63" s="18"/>
       <c r="K63" s="22"/>
@@ -2600,9 +2592,9 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
       <c r="I64" s="1"/>
       <c r="J64" s="18"/>
       <c r="K64" s="22"/>
@@ -2614,9 +2606,9 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
       <c r="I65" s="1"/>
       <c r="J65" s="18"/>
       <c r="K65" s="22"/>
@@ -2628,9 +2620,9 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="33"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
       <c r="I66" s="1"/>
       <c r="J66" s="18"/>
       <c r="K66" s="22"/>
@@ -2642,9 +2634,9 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="33"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
       <c r="I67" s="1"/>
       <c r="J67" s="18"/>
       <c r="K67" s="22"/>
@@ -2656,9 +2648,9 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="33"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
       <c r="I68" s="1"/>
       <c r="J68" s="18"/>
       <c r="K68" s="22"/>
@@ -2670,9 +2662,9 @@
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="33"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
       <c r="I69" s="1"/>
       <c r="J69" s="18"/>
       <c r="K69" s="22"/>
@@ -2684,9 +2676,9 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="33"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
       <c r="I70" s="1"/>
       <c r="J70" s="18"/>
       <c r="K70" s="22"/>
@@ -2698,9 +2690,9 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="33"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
       <c r="I71" s="1"/>
       <c r="J71" s="18"/>
       <c r="K71" s="22"/>
@@ -2712,9 +2704,9 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33"/>
-      <c r="H72" s="33"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
       <c r="I72" s="1"/>
       <c r="J72" s="18"/>
       <c r="K72" s="22"/>
@@ -2726,9 +2718,9 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="33"/>
-      <c r="H73" s="33"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
       <c r="I73" s="1"/>
       <c r="J73" s="18"/>
       <c r="K73" s="22"/>
@@ -2740,9 +2732,9 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
       <c r="I74" s="1"/>
       <c r="J74" s="18"/>
       <c r="K74" s="22"/>
@@ -2754,9 +2746,9 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="33"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
       <c r="I75" s="1"/>
       <c r="J75" s="18"/>
       <c r="K75" s="22"/>
@@ -2768,9 +2760,9 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="33"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="32"/>
       <c r="I76" s="1"/>
       <c r="J76" s="18"/>
       <c r="K76" s="22"/>
@@ -2782,9 +2774,9 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="33"/>
-      <c r="H77" s="33"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
       <c r="I77" s="1"/>
       <c r="J77" s="18"/>
       <c r="K77" s="22"/>
@@ -2796,9 +2788,9 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="33"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
       <c r="I78" s="1"/>
       <c r="J78" s="18"/>
       <c r="K78" s="22"/>
@@ -2810,9 +2802,9 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="33"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
       <c r="I79" s="1"/>
       <c r="J79" s="18"/>
       <c r="K79" s="22"/>
@@ -2824,9 +2816,9 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
       <c r="I80" s="1"/>
       <c r="J80" s="18"/>
       <c r="K80" s="22"/>
@@ -2838,9 +2830,9 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="33"/>
-      <c r="H81" s="33"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="32"/>
       <c r="I81" s="1"/>
       <c r="J81" s="18"/>
       <c r="K81" s="22"/>
@@ -2852,9 +2844,9 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="33"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="32"/>
       <c r="I82" s="1"/>
       <c r="J82" s="18"/>
       <c r="K82" s="22"/>
@@ -2866,9 +2858,9 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
       <c r="I83" s="1"/>
       <c r="J83" s="18"/>
       <c r="K83" s="22"/>
@@ -2880,9 +2872,9 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="33"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
       <c r="I84" s="1"/>
       <c r="J84" s="18"/>
       <c r="K84" s="22"/>
@@ -2894,9 +2886,9 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="33"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
       <c r="I85" s="1"/>
       <c r="J85" s="18"/>
       <c r="K85" s="22"/>
@@ -2908,9 +2900,9 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="33"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
       <c r="I86" s="1"/>
       <c r="J86" s="18"/>
       <c r="K86" s="22"/>
@@ -2922,9 +2914,9 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
       <c r="I87" s="1"/>
       <c r="J87" s="18"/>
       <c r="K87" s="22"/>
@@ -2936,9 +2928,9 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
       <c r="I88" s="1"/>
       <c r="J88" s="18"/>
       <c r="K88" s="22"/>
@@ -2950,9 +2942,9 @@
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="33"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="32"/>
+      <c r="H89" s="32"/>
       <c r="I89" s="1"/>
       <c r="J89" s="18"/>
       <c r="K89" s="22"/>
@@ -2964,9 +2956,9 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="33"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="32"/>
       <c r="I90" s="1"/>
       <c r="J90" s="18"/>
       <c r="K90" s="22"/>
@@ -2978,9 +2970,9 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="33"/>
-      <c r="H91" s="33"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="32"/>
       <c r="I91" s="1"/>
       <c r="J91" s="18"/>
       <c r="K91" s="22"/>
@@ -2992,9 +2984,9 @@
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="33"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="32"/>
       <c r="I92" s="1"/>
       <c r="J92" s="18"/>
       <c r="K92" s="22"/>
@@ -3006,9 +2998,9 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="33"/>
-      <c r="G93" s="33"/>
-      <c r="H93" s="33"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="32"/>
       <c r="I93" s="1"/>
       <c r="J93" s="18"/>
       <c r="K93" s="22"/>
@@ -3020,9 +3012,9 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="33"/>
-      <c r="G94" s="33"/>
-      <c r="H94" s="33"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="32"/>
       <c r="I94" s="1"/>
       <c r="J94" s="18"/>
       <c r="K94" s="22"/>
@@ -3034,9 +3026,9 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="33"/>
-      <c r="G95" s="33"/>
-      <c r="H95" s="33"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="32"/>
       <c r="I95" s="1"/>
       <c r="J95" s="18"/>
       <c r="K95" s="22"/>
@@ -3048,9 +3040,9 @@
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="33"/>
-      <c r="H96" s="33"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="32"/>
+      <c r="H96" s="32"/>
       <c r="I96" s="1"/>
       <c r="J96" s="18"/>
       <c r="K96" s="22"/>
@@ -3062,9 +3054,9 @@
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="33"/>
-      <c r="G97" s="33"/>
-      <c r="H97" s="33"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="32"/>
       <c r="I97" s="1"/>
       <c r="J97" s="18"/>
       <c r="K97" s="22"/>
@@ -3076,9 +3068,9 @@
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="33"/>
-      <c r="G98" s="33"/>
-      <c r="H98" s="33"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="32"/>
       <c r="I98" s="1"/>
       <c r="J98" s="18"/>
       <c r="K98" s="22"/>
@@ -3090,9 +3082,9 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="33"/>
-      <c r="G99" s="33"/>
-      <c r="H99" s="33"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="32"/>
       <c r="I99" s="1"/>
       <c r="J99" s="18"/>
       <c r="K99" s="22"/>
@@ -3104,9 +3096,9 @@
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="33"/>
-      <c r="G100" s="33"/>
-      <c r="H100" s="33"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="32"/>
       <c r="I100" s="1"/>
       <c r="J100" s="18"/>
       <c r="K100" s="22"/>
@@ -3118,9 +3110,9 @@
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="33"/>
-      <c r="G101" s="33"/>
-      <c r="H101" s="33"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="32"/>
       <c r="I101" s="1"/>
       <c r="J101" s="18"/>
       <c r="K101" s="22"/>
@@ -3132,9 +3124,9 @@
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
-      <c r="F102" s="34"/>
-      <c r="G102" s="34"/>
-      <c r="H102" s="34"/>
+      <c r="F102" s="33"/>
+      <c r="G102" s="33"/>
+      <c r="H102" s="33"/>
       <c r="I102" s="5"/>
       <c r="J102" s="23"/>
       <c r="K102" s="24"/>
@@ -3144,8 +3136,7 @@
       <c r="K103" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="L4:L5"/>
+  <mergeCells count="20">
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A14:L14"/>
     <mergeCell ref="L15:L16"/>
@@ -3161,12 +3152,11 @@
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K4:K5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="F4:H4"/>
-    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Prod_simple_de.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Prod_simple_de.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Tag</t>
   </si>
@@ -70,15 +70,6 @@
     <t>Die Wareneingänge sind bekannt (siehe oben, graue Felder)</t>
   </si>
   <si>
-    <t>Bitte für alle bekannten Wareneingänge möglichst chargengenau die Warenausgänge zuordnen</t>
-  </si>
-  <si>
-    <t>In Spalte A ab Zeile x die Chargennummer aus dem Wareneingang eintragen (ab Feld D6) und ab Spalte B ein zugehöriges Produkt und die weiteren erfragten Angaben eintragen</t>
-  </si>
-  <si>
-    <t>Dann nächste Chargennummer eintragen und die zugehörigen Produkte erfassen usw</t>
-  </si>
-  <si>
     <t>Warenausgang - chargenbasierte Produktliste</t>
   </si>
   <si>
@@ -102,13 +93,6 @@
 (z.B. 4 Kartons a 10kg)</t>
   </si>
   <si>
-    <t>So oft wiederholen bis alle Produkte für diese Wareneingangs-Charge erfasst wurden</t>
-  </si>
-  <si>
-    <t>Wareneingang - Chargennummer
-(aus D6-Dxx)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lieferant </t>
   </si>
   <si>
@@ -120,13 +104,34 @@
   </si>
   <si>
     <t xml:space="preserve">Empfänger </t>
+  </si>
+  <si>
+    <t>Information zum Ausfüllen:</t>
+  </si>
+  <si>
+    <t>In Spalte A ab Zeile x die Zeilennummer aus dem Wareneingang eintragen und ab Spalte B ein zugehöriges Produkt und die weiteren erfragten Angaben eintragen</t>
+  </si>
+  <si>
+    <t>Bitte für alle bekannten Wareneingänge möglichst liefergenau die Warenausgänge zuordnen</t>
+  </si>
+  <si>
+    <t>So oft wiederholen bis alle Produkte für diesen Wareneingang erfasst wurden</t>
+  </si>
+  <si>
+    <t>Dann für den nächsen Wareneingang die zugehörigen Produkte erfassen usw</t>
+  </si>
+  <si>
+    <t>Zeilennummer oder Chargennummer aus dem Wareneingang eintragen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,6 +384,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="30">
@@ -1041,7 +1054,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="29" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -1144,23 +1157,11 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="33" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1199,22 +1200,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="30" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1675,58 +1691,60 @@
     </row>
     <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:13" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="54"/>
-      <c r="B4" s="36" t="s">
+      <c r="A4" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="36" t="s">
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="42" t="s">
+      <c r="J4" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="60"/>
+      <c r="L4" s="38" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:13" ht="39.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="55"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="29" t="s">
         <v>0</v>
       </c>
@@ -1736,17 +1754,19 @@
       <c r="H5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="37"/>
+      <c r="I5" s="53"/>
       <c r="J5" s="34" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K5" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="43"/>
+        <v>26</v>
+      </c>
+      <c r="L5" s="39"/>
     </row>
     <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
+      <c r="A6" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -1761,8 +1781,8 @@
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="19" t="s">
-        <v>16</v>
+      <c r="A7" s="37" t="s">
+        <v>28</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -1776,7 +1796,7 @@
     </row>
     <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -1790,7 +1810,7 @@
     </row>
     <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="19" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -1804,7 +1824,7 @@
     </row>
     <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -1818,7 +1838,7 @@
     </row>
     <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="19" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -1832,7 +1852,7 @@
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="19" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -1844,8 +1864,10 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
+    <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -1857,76 +1879,76 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="44"/>
+    </row>
+    <row r="15" spans="1:13" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="48"/>
-    </row>
-    <row r="15" spans="1:13" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="49" t="s">
+      <c r="E15" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="F15" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="56" t="s">
+      <c r="J15" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="62"/>
+      <c r="L15" s="38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="21" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="49"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="54"/>
+      <c r="J16" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="49" t="s">
+      <c r="K16" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="59"/>
-      <c r="L15" s="42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="21" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="53"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="I16" s="60"/>
-      <c r="J16" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="43"/>
+      <c r="L16" s="39"/>
     </row>
     <row r="17" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
@@ -3137,6 +3159,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A14:L14"/>
     <mergeCell ref="L15:L16"/>
@@ -3152,11 +3179,6 @@
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Prod_simple_de.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Prod_simple_de.xlsx
@@ -1163,6 +1163,30 @@
     <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="33" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1200,12 +1224,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="35" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1213,24 +1231,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="30" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1649,7 +1649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1691,60 +1691,60 @@
     </row>
     <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:13" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="52" t="s">
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="60"/>
-      <c r="L4" s="38" t="s">
+      <c r="K4" s="43"/>
+      <c r="L4" s="46" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:13" ht="39.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="29" t="s">
         <v>0</v>
       </c>
@@ -1754,14 +1754,14 @@
       <c r="H5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="53"/>
+      <c r="I5" s="39"/>
       <c r="J5" s="34" t="s">
         <v>25</v>
       </c>
       <c r="K5" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="39"/>
+      <c r="L5" s="47"/>
     </row>
     <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
@@ -1879,59 +1879,59 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="44"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="52"/>
     </row>
     <row r="15" spans="1:13" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="45" t="s">
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="61" t="s">
+      <c r="J15" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="62"/>
-      <c r="L15" s="38" t="s">
+      <c r="K15" s="45"/>
+      <c r="L15" s="46" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="21" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="49"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="54"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="60"/>
       <c r="F16" s="36" t="s">
         <v>0</v>
       </c>
@@ -1941,14 +1941,14 @@
       <c r="H16" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="I16" s="54"/>
+      <c r="I16" s="60"/>
       <c r="J16" s="35" t="s">
         <v>25</v>
       </c>
       <c r="K16" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="39"/>
+      <c r="L16" s="47"/>
     </row>
     <row r="17" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
@@ -3159,11 +3159,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L4:L5"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A14:L14"/>
     <mergeCell ref="L15:L16"/>
@@ -3179,6 +3174,11 @@
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Prod_simple_de.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Prod_simple_de.xlsx
@@ -64,9 +64,6 @@
     <t>Wareneingang</t>
   </si>
   <si>
-    <t>Ankunftsdatum</t>
-  </si>
-  <si>
     <t>Die Wareneingänge sind bekannt (siehe oben, graue Felder)</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Versendedatum</t>
   </si>
 </sst>
 </file>
@@ -1163,30 +1163,15 @@
     <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="33" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1194,15 +1179,6 @@
     <xf numFmtId="49" fontId="34" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1224,6 +1200,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="35" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1231,6 +1213,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="30" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1691,60 +1691,60 @@
     </row>
     <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:13" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="38" t="s">
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="46" t="s">
+      <c r="J4" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="60"/>
+      <c r="L4" s="43" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:13" ht="39.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="59"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="29" t="s">
         <v>0</v>
       </c>
@@ -1754,18 +1754,18 @@
       <c r="H5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="39"/>
+      <c r="I5" s="53"/>
       <c r="J5" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="47"/>
+      <c r="L5" s="44"/>
     </row>
     <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -1879,59 +1879,59 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="42"/>
+    </row>
+    <row r="15" spans="1:13" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="52"/>
-    </row>
-    <row r="15" spans="1:13" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="53" t="s">
+      <c r="C15" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="D15" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="E15" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="F15" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="61" t="s">
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="45"/>
-      <c r="L15" s="46" t="s">
+      <c r="J15" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="62"/>
+      <c r="L15" s="43" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="21" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="57"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="60"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="54"/>
       <c r="F16" s="36" t="s">
         <v>0</v>
       </c>
@@ -1941,14 +1941,14 @@
       <c r="H16" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="I16" s="60"/>
+      <c r="I16" s="54"/>
       <c r="J16" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" s="47"/>
+      <c r="L16" s="44"/>
     </row>
     <row r="17" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
@@ -3159,6 +3159,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A14:L14"/>
     <mergeCell ref="L15:L16"/>
@@ -3175,10 +3179,6 @@
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Prod_simple_de.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Prod_simple_de.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>Tag</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>Chargennummer</t>
-  </si>
-  <si>
-    <t>Produktname</t>
   </si>
   <si>
     <t>EAN</t>
@@ -56,41 +53,10 @@
     <t>street</t>
   </si>
   <si>
-    <t>empfangene
-Menge
-(z.B. 4 Kartons a 10kg)</t>
-  </si>
-  <si>
     <t>Wareneingang</t>
   </si>
   <si>
     <t>Die Wareneingänge sind bekannt (siehe oben, graue Felder)</t>
-  </si>
-  <si>
-    <t>Warenausgang - chargenbasierte Produktliste</t>
-  </si>
-  <si>
-    <t>Produkt - Produktname</t>
-  </si>
-  <si>
-    <t>Produkt - EAN</t>
-  </si>
-  <si>
-    <t>Produkt - Chargennummer</t>
-  </si>
-  <si>
-    <t>Produkt - MHD oder Verbrauchsdatum</t>
-  </si>
-  <si>
-    <t>Produkt - Warenausgang</t>
-  </si>
-  <si>
-    <t>Produkt -
-abgegebene Menge
-(z.B. 4 Kartons a 10kg)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lieferant </t>
   </si>
   <si>
     <t>Name</t>
@@ -98,9 +64,6 @@
   <si>
     <t>Adresse 
 (Straße Hausnummer, PLZ Ort)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empfänger </t>
   </si>
   <si>
     <t>Information zum Ausfüllen:</t>
@@ -118,20 +81,67 @@
     <t>Dann für den nächsen Wareneingang die zugehörigen Produkte erfassen usw</t>
   </si>
   <si>
-    <t>Zeilennummer oder Chargennummer aus dem Wareneingang eintragen</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve"> Versendedatum</t>
+    <t>Bezeichnung</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Lotinformation</t>
+  </si>
+  <si>
+    <t>Lieferung</t>
+  </si>
+  <si>
+    <t>abgegebene Menge
+(z.B. 4 Kartons a 10kg)</t>
+  </si>
+  <si>
+    <t>Lieferant</t>
+  </si>
+  <si>
+    <t>Zutat</t>
+  </si>
+  <si>
+    <t>Zeilennummer oder die Chargennummer aus dem Wareneingang eintragen</t>
+  </si>
+  <si>
+    <t>Empfänger</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Warenausgang - chargenbasierte </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Produktliste</t>
+    </r>
+  </si>
+  <si>
+    <t>Lieferdatum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,13 +353,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -373,23 +376,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="16"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -569,7 +563,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -926,15 +920,103 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1051,10 +1133,10 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -1072,9 +1154,6 @@
     <xf numFmtId="49" fontId="7" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1138,9 +1217,6 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -1151,17 +1227,17 @@
     <xf numFmtId="1" fontId="7" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1172,65 +1248,106 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="32" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="30" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1647,1538 +1764,1685 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.73046875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="25.86328125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="12.46484375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="16" style="10" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="7.73046875" style="27" customWidth="1"/>
-    <col min="8" max="8" width="9.19921875" style="27" customWidth="1"/>
-    <col min="9" max="9" width="22.06640625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="21.265625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="39.9296875" style="10" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" style="10" customWidth="1"/>
-    <col min="13" max="13" width="26.9296875" style="10" customWidth="1"/>
-    <col min="14" max="16384" width="11.3984375" style="10"/>
+    <col min="1" max="1" width="19.73046875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="25.86328125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12.46484375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16" style="9" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="7.73046875" style="26" customWidth="1"/>
+    <col min="8" max="8" width="9.19921875" style="26" customWidth="1"/>
+    <col min="9" max="9" width="22.06640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="21.265625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="39.9296875" style="9" customWidth="1"/>
+    <col min="12" max="12" width="13.265625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" style="9" customWidth="1"/>
+    <col min="14" max="14" width="26.9296875" style="9" customWidth="1"/>
+    <col min="15" max="16384" width="11.3984375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="25"/>
+      <c r="H1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="47"/>
+      <c r="F4" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="26"/>
-      <c r="H1" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:13" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="38" t="s">
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="51"/>
+      <c r="B5" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-    </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="50" t="s">
+      <c r="K5" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="54"/>
+    </row>
+    <row r="6" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="52"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="60"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="55"/>
+    </row>
+    <row r="7" spans="1:14" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+    </row>
+    <row r="13" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+    </row>
+    <row r="15" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="40"/>
+    </row>
+    <row r="16" spans="1:14" s="20" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="45"/>
+      <c r="F16" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="44"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="20" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="61"/>
+      <c r="B17" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="52" t="s">
+      <c r="D17" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="57" t="s">
+      <c r="E17" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="60"/>
-      <c r="L4" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="13"/>
-    </row>
-    <row r="5" spans="1:13" ht="39.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="29" t="s">
+      <c r="G17" s="64"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="67"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="62"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G18" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H18" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="44"/>
-    </row>
-    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-    </row>
-    <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-    </row>
-    <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-    </row>
-    <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="42"/>
-    </row>
-    <row r="15" spans="1:13" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="62"/>
-      <c r="L15" s="43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="21" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="49"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="I16" s="54"/>
-      <c r="J16" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="44"/>
-    </row>
-    <row r="17" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="18"/>
-    </row>
-    <row r="18" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="18"/>
-    </row>
-    <row r="19" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I18" s="70"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="68"/>
+    </row>
+    <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="18"/>
-    </row>
-    <row r="20" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J19" s="17"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="17"/>
+    </row>
+    <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="18"/>
-    </row>
-    <row r="21" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J20" s="17"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="18"/>
-    </row>
-    <row r="22" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J21" s="17"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="18"/>
-    </row>
-    <row r="23" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J22" s="17"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="17"/>
+    </row>
+    <row r="23" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="18"/>
-    </row>
-    <row r="24" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J23" s="17"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="17"/>
+    </row>
+    <row r="24" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="18"/>
-    </row>
-    <row r="25" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J24" s="17"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="17"/>
+    </row>
+    <row r="25" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="18"/>
-    </row>
-    <row r="26" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J25" s="17"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="17"/>
+    </row>
+    <row r="26" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="18"/>
-    </row>
-    <row r="27" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J26" s="17"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="17"/>
+    </row>
+    <row r="27" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="18"/>
-    </row>
-    <row r="28" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J27" s="17"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="17"/>
+    </row>
+    <row r="28" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="18"/>
-    </row>
-    <row r="29" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J28" s="17"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="17"/>
+    </row>
+    <row r="29" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="18"/>
-    </row>
-    <row r="30" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J29" s="17"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="17"/>
+    </row>
+    <row r="30" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="18"/>
-    </row>
-    <row r="31" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J30" s="17"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="17"/>
+    </row>
+    <row r="31" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="18"/>
-    </row>
-    <row r="32" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J31" s="17"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="17"/>
+    </row>
+    <row r="32" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="18"/>
-    </row>
-    <row r="33" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J32" s="17"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="17"/>
+    </row>
+    <row r="33" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="18"/>
-    </row>
-    <row r="34" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J33" s="17"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="17"/>
+    </row>
+    <row r="34" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="18"/>
-    </row>
-    <row r="35" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J34" s="17"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="17"/>
+    </row>
+    <row r="35" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="18"/>
-    </row>
-    <row r="36" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J35" s="17"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="17"/>
+    </row>
+    <row r="36" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="18"/>
-    </row>
-    <row r="37" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J36" s="17"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="17"/>
+    </row>
+    <row r="37" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="18"/>
-    </row>
-    <row r="38" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J37" s="17"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="17"/>
+    </row>
+    <row r="38" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="18"/>
-    </row>
-    <row r="39" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J38" s="17"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="17"/>
+    </row>
+    <row r="39" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="18"/>
-    </row>
-    <row r="40" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J39" s="17"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="17"/>
+    </row>
+    <row r="40" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="18"/>
-    </row>
-    <row r="41" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J40" s="17"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="17"/>
+    </row>
+    <row r="41" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="18"/>
-    </row>
-    <row r="42" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J41" s="17"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="17"/>
+    </row>
+    <row r="42" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="18"/>
-    </row>
-    <row r="43" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J42" s="17"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="17"/>
+    </row>
+    <row r="43" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="18"/>
-    </row>
-    <row r="44" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J43" s="17"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="17"/>
+    </row>
+    <row r="44" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="18"/>
-    </row>
-    <row r="45" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J44" s="17"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="17"/>
+    </row>
+    <row r="45" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="18"/>
-    </row>
-    <row r="46" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J45" s="17"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="17"/>
+    </row>
+    <row r="46" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="18"/>
-    </row>
-    <row r="47" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J46" s="17"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="17"/>
+    </row>
+    <row r="47" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="18"/>
-    </row>
-    <row r="48" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J47" s="17"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="17"/>
+    </row>
+    <row r="48" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="18"/>
-    </row>
-    <row r="49" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J48" s="17"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="17"/>
+    </row>
+    <row r="49" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="18"/>
-    </row>
-    <row r="50" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J49" s="17"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="17"/>
+    </row>
+    <row r="50" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="18"/>
-    </row>
-    <row r="51" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J50" s="17"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="17"/>
+    </row>
+    <row r="51" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="18"/>
-    </row>
-    <row r="52" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J51" s="17"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="17"/>
+    </row>
+    <row r="52" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="18"/>
-    </row>
-    <row r="53" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J52" s="17"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="17"/>
+    </row>
+    <row r="53" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="18"/>
-    </row>
-    <row r="54" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J53" s="17"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="17"/>
+    </row>
+    <row r="54" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="18"/>
-    </row>
-    <row r="55" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J54" s="17"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="17"/>
+    </row>
+    <row r="55" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="18"/>
-    </row>
-    <row r="56" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J55" s="17"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="17"/>
+    </row>
+    <row r="56" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="18"/>
-    </row>
-    <row r="57" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J56" s="17"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="17"/>
+    </row>
+    <row r="57" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="18"/>
-    </row>
-    <row r="58" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J57" s="17"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="17"/>
+    </row>
+    <row r="58" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="18"/>
-    </row>
-    <row r="59" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J58" s="17"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="17"/>
+    </row>
+    <row r="59" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="18"/>
-    </row>
-    <row r="60" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J59" s="17"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="17"/>
+    </row>
+    <row r="60" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="18"/>
-    </row>
-    <row r="61" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J60" s="17"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="17"/>
+    </row>
+    <row r="61" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="18"/>
-    </row>
-    <row r="62" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J61" s="17"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="17"/>
+    </row>
+    <row r="62" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="18"/>
-    </row>
-    <row r="63" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J62" s="17"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="17"/>
+    </row>
+    <row r="63" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="18"/>
-    </row>
-    <row r="64" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J63" s="17"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="17"/>
+    </row>
+    <row r="64" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="18"/>
-    </row>
-    <row r="65" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J64" s="17"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="17"/>
+    </row>
+    <row r="65" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="18"/>
-    </row>
-    <row r="66" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J65" s="17"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="17"/>
+    </row>
+    <row r="66" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="32"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="18"/>
-    </row>
-    <row r="67" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J66" s="17"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="17"/>
+    </row>
+    <row r="67" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="32"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="18"/>
-    </row>
-    <row r="68" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J67" s="17"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="17"/>
+    </row>
+    <row r="68" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="32"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="18"/>
-    </row>
-    <row r="69" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J68" s="17"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="17"/>
+    </row>
+    <row r="69" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="32"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="18"/>
-    </row>
-    <row r="70" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J69" s="17"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="17"/>
+    </row>
+    <row r="70" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="32"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="18"/>
-    </row>
-    <row r="71" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J70" s="17"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="17"/>
+    </row>
+    <row r="71" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="32"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="18"/>
-    </row>
-    <row r="72" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J71" s="17"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="17"/>
+    </row>
+    <row r="72" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="32"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="18"/>
-    </row>
-    <row r="73" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J72" s="17"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="17"/>
+    </row>
+    <row r="73" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="32"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="18"/>
-    </row>
-    <row r="74" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J73" s="17"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="17"/>
+    </row>
+    <row r="74" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="32"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="22"/>
-      <c r="L74" s="18"/>
-    </row>
-    <row r="75" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J74" s="17"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="17"/>
+    </row>
+    <row r="75" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="32"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="22"/>
-      <c r="L75" s="18"/>
-    </row>
-    <row r="76" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J75" s="17"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="17"/>
+    </row>
+    <row r="76" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="32"/>
-      <c r="G76" s="32"/>
-      <c r="H76" s="32"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="22"/>
-      <c r="L76" s="18"/>
-    </row>
-    <row r="77" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J76" s="17"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="17"/>
+    </row>
+    <row r="77" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="32"/>
-      <c r="G77" s="32"/>
-      <c r="H77" s="32"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="22"/>
-      <c r="L77" s="18"/>
-    </row>
-    <row r="78" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J77" s="17"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="17"/>
+    </row>
+    <row r="78" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="32"/>
-      <c r="G78" s="32"/>
-      <c r="H78" s="32"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="22"/>
-      <c r="L78" s="18"/>
-    </row>
-    <row r="79" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J78" s="17"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="17"/>
+    </row>
+    <row r="79" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="32"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="22"/>
-      <c r="L79" s="18"/>
-    </row>
-    <row r="80" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J79" s="17"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="17"/>
+    </row>
+    <row r="80" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="32"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="32"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="22"/>
-      <c r="L80" s="18"/>
-    </row>
-    <row r="81" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J80" s="17"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="21"/>
+      <c r="M80" s="17"/>
+    </row>
+    <row r="81" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="32"/>
-      <c r="G81" s="32"/>
-      <c r="H81" s="32"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="22"/>
-      <c r="L81" s="18"/>
-    </row>
-    <row r="82" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J81" s="17"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="17"/>
+    </row>
+    <row r="82" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="32"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="32"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="22"/>
-      <c r="L82" s="18"/>
-    </row>
-    <row r="83" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J82" s="17"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="17"/>
+    </row>
+    <row r="83" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="32"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="32"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="22"/>
-      <c r="L83" s="18"/>
-    </row>
-    <row r="84" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J83" s="17"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="21"/>
+      <c r="M83" s="17"/>
+    </row>
+    <row r="84" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="32"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="22"/>
-      <c r="L84" s="18"/>
-    </row>
-    <row r="85" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J84" s="17"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="17"/>
+    </row>
+    <row r="85" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="32"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="22"/>
-      <c r="L85" s="18"/>
-    </row>
-    <row r="86" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J85" s="17"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="21"/>
+      <c r="M85" s="17"/>
+    </row>
+    <row r="86" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="32"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="32"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="22"/>
-      <c r="L86" s="18"/>
-    </row>
-    <row r="87" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J86" s="17"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="17"/>
+    </row>
+    <row r="87" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="32"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="22"/>
-      <c r="L87" s="18"/>
-    </row>
-    <row r="88" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J87" s="17"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="17"/>
+    </row>
+    <row r="88" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="32"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="32"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="22"/>
-      <c r="L88" s="18"/>
-    </row>
-    <row r="89" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J88" s="17"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="17"/>
+    </row>
+    <row r="89" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="32"/>
-      <c r="G89" s="32"/>
-      <c r="H89" s="32"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="22"/>
-      <c r="L89" s="18"/>
-    </row>
-    <row r="90" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J89" s="17"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="17"/>
+    </row>
+    <row r="90" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="32"/>
-      <c r="G90" s="32"/>
-      <c r="H90" s="32"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="22"/>
-      <c r="L90" s="18"/>
-    </row>
-    <row r="91" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J90" s="17"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="21"/>
+      <c r="M90" s="17"/>
+    </row>
+    <row r="91" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="32"/>
-      <c r="G91" s="32"/>
-      <c r="H91" s="32"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="18"/>
-      <c r="K91" s="22"/>
-      <c r="L91" s="18"/>
-    </row>
-    <row r="92" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J91" s="17"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="17"/>
+    </row>
+    <row r="92" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="32"/>
-      <c r="G92" s="32"/>
-      <c r="H92" s="32"/>
+      <c r="F92" s="30"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="22"/>
-      <c r="L92" s="18"/>
-    </row>
-    <row r="93" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J92" s="17"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="17"/>
+    </row>
+    <row r="93" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="32"/>
-      <c r="G93" s="32"/>
-      <c r="H93" s="32"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="18"/>
-      <c r="K93" s="22"/>
-      <c r="L93" s="18"/>
-    </row>
-    <row r="94" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J93" s="17"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
+      <c r="M93" s="17"/>
+    </row>
+    <row r="94" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="32"/>
-      <c r="G94" s="32"/>
-      <c r="H94" s="32"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
       <c r="I94" s="1"/>
-      <c r="J94" s="18"/>
-      <c r="K94" s="22"/>
-      <c r="L94" s="18"/>
-    </row>
-    <row r="95" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J94" s="17"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="21"/>
+      <c r="M94" s="17"/>
+    </row>
+    <row r="95" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="32"/>
-      <c r="G95" s="32"/>
-      <c r="H95" s="32"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
       <c r="I95" s="1"/>
-      <c r="J95" s="18"/>
-      <c r="K95" s="22"/>
-      <c r="L95" s="18"/>
-    </row>
-    <row r="96" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J95" s="17"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="21"/>
+      <c r="M95" s="17"/>
+    </row>
+    <row r="96" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="32"/>
-      <c r="G96" s="32"/>
-      <c r="H96" s="32"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
       <c r="I96" s="1"/>
-      <c r="J96" s="18"/>
-      <c r="K96" s="22"/>
-      <c r="L96" s="18"/>
-    </row>
-    <row r="97" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J96" s="17"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="21"/>
+      <c r="M96" s="17"/>
+    </row>
+    <row r="97" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="32"/>
-      <c r="G97" s="32"/>
-      <c r="H97" s="32"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="30"/>
       <c r="I97" s="1"/>
-      <c r="J97" s="18"/>
-      <c r="K97" s="22"/>
-      <c r="L97" s="18"/>
-    </row>
-    <row r="98" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J97" s="17"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="21"/>
+      <c r="M97" s="17"/>
+    </row>
+    <row r="98" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="32"/>
-      <c r="G98" s="32"/>
-      <c r="H98" s="32"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
       <c r="I98" s="1"/>
-      <c r="J98" s="18"/>
-      <c r="K98" s="22"/>
-      <c r="L98" s="18"/>
-    </row>
-    <row r="99" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J98" s="17"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="21"/>
+      <c r="M98" s="17"/>
+    </row>
+    <row r="99" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="32"/>
-      <c r="G99" s="32"/>
-      <c r="H99" s="32"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="30"/>
       <c r="I99" s="1"/>
-      <c r="J99" s="18"/>
-      <c r="K99" s="22"/>
-      <c r="L99" s="18"/>
-    </row>
-    <row r="100" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J99" s="17"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="21"/>
+      <c r="M99" s="17"/>
+    </row>
+    <row r="100" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="32"/>
-      <c r="G100" s="32"/>
-      <c r="H100" s="32"/>
+      <c r="F100" s="30"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="30"/>
       <c r="I100" s="1"/>
-      <c r="J100" s="18"/>
-      <c r="K100" s="22"/>
-      <c r="L100" s="18"/>
-    </row>
-    <row r="101" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J100" s="17"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="21"/>
+      <c r="M100" s="17"/>
+    </row>
+    <row r="101" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="32"/>
-      <c r="G101" s="32"/>
-      <c r="H101" s="32"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="30"/>
       <c r="I101" s="1"/>
-      <c r="J101" s="18"/>
-      <c r="K101" s="22"/>
-      <c r="L101" s="18"/>
-    </row>
-    <row r="102" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="4"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="33"/>
-      <c r="G102" s="33"/>
-      <c r="H102" s="33"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="23"/>
-      <c r="K102" s="24"/>
-      <c r="L102" s="18"/>
-    </row>
-    <row r="103" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K103" s="25"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="21"/>
+      <c r="M101" s="17"/>
+    </row>
+    <row r="102" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="3"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="30"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="30"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="21"/>
+      <c r="M102" s="17"/>
+    </row>
+    <row r="103" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="4"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="31"/>
+      <c r="G103" s="31"/>
+      <c r="H103" s="31"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="23"/>
+      <c r="L103" s="34"/>
+      <c r="M103" s="17"/>
+    </row>
+    <row r="104" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K104" s="24"/>
+      <c r="L104" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I4:I5"/>
+  <mergeCells count="32">
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Prod_simple_de.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Prod_simple_de.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Tag</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>Lieferant</t>
-  </si>
-  <si>
-    <t>Zutat</t>
   </si>
   <si>
     <t>Zeilennummer oder die Chargennummer aus dem Wareneingang eintragen</t>
@@ -1870,7 +1867,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="42"/>
       <c r="H5" s="42"/>
@@ -2034,7 +2031,7 @@
     </row>
     <row r="15" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
@@ -2051,10 +2048,10 @@
     </row>
     <row r="16" spans="1:14" s="20" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C16" s="45"/>
       <c r="D16" s="48" t="s">
@@ -2068,7 +2065,7 @@
       <c r="H16" s="64"/>
       <c r="I16" s="65"/>
       <c r="J16" s="43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16" s="44"/>
       <c r="L16" s="45"/>
@@ -2091,7 +2088,7 @@
         <v>8</v>
       </c>
       <c r="F17" s="63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17" s="64"/>
       <c r="H17" s="65"/>
@@ -3444,6 +3441,20 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
   </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+      <formula1>1</formula1>
+      <formula2>31</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+      <formula1>1</formula1>
+      <formula2>12</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+      <formula1>1900</formula1>
+      <formula2>2100</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
